--- a/TOP/Banglore.xlsx
+++ b/TOP/Banglore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="395" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -77,13 +77,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
   <fonts count="7">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -165,11 +165,14 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -182,7 +185,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="15"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -255,14 +258,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
+      <selection activeCell="C13" activeCellId="0" pane="topLeft" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -288,7 +291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -308,14 +311,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <f aca="false">24*60</f>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -344,7 +346,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -373,7 +375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
@@ -402,7 +404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -431,7 +433,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -460,7 +462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
@@ -489,7 +491,7 @@
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -517,7 +519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
@@ -546,7 +548,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
         <v>17</v>
       </c>
@@ -575,7 +577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
@@ -595,8 +597,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <f aca="false">24*60</f>
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -620,17 +621,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -645,17 +646,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
